--- a/Research Fundamentals-UVM papers.xlsx
+++ b/Research Fundamentals-UVM papers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Paper Name</t>
   </si>
@@ -90,6 +90,47 @@
   </si>
   <si>
     <t>https://sci-hub.se/10.1109/ICM.2018.8704037</t>
+  </si>
+  <si>
+    <t>Towards a Generic UVM</t>
+  </si>
+  <si>
+    <t>2022 IEEE High Performance Extreme Computing Conference (HPEC)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9926321</t>
+  </si>
+  <si>
+    <t>SpaceWire Codec VIP:
+ an innovative architecture of UVM-based Verification Environment:
+ SpaceWire Test and Verification, Short Paper</t>
+  </si>
+  <si>
+    <t>2022 International SpaceWire &amp; SpaceFibre Conference (ISC)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9944066</t>
+  </si>
+  <si>
+    <t>[ART]: A Novel Approach to Automated UVM Testbench Generation</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Microelectronics (ICM)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/10815861</t>
+  </si>
+  <si>
+    <t>Development of generic verification environment based on UVM with case study on HMC controller</t>
+  </si>
+  <si>
+    <t>2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/10.1109/RTEICT.2016.7807882</t>
   </si>
 </sst>
 </file>
@@ -102,7 +143,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +179,18 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -282,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,30 +344,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,12 +519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,171 +667,204 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,103 +1400,225 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="52.3909090909091" customWidth="1"/>
-    <col min="2" max="2" width="125.781818181818" customWidth="1"/>
-    <col min="3" max="3" width="47.7636363636364" customWidth="1"/>
+    <col min="1" max="1" width="140" customWidth="1"/>
+    <col min="2" max="2" width="164.063636363636" customWidth="1"/>
+    <col min="3" max="3" width="54.9636363636364" customWidth="1"/>
     <col min="4" max="4" width="33.1454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.5" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27.5" spans="1:63">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
     </row>
-    <row r="2" ht="41" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="41" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>2016</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="61.5" spans="1:4">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="2" customFormat="1" ht="41" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="82" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="41" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>2017</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="61.5" spans="1:4">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>2018</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="20.5" spans="1:4">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="1" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>2018</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="23" spans="1:4">
+      <c r="A7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="61.5" spans="1:8">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="20.5" spans="2:2">
+      <c r="B14" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1430,6 +1626,10 @@
     <hyperlink ref="B5" r:id="rId2" display="International Conference on Advances in Computing, Communications and Informatics (ICACCI)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8536361/proceeding"/>
     <hyperlink ref="B6" r:id="rId3" display="2018 30th International Conference on Microelectronics (ICM)" tooltip="https://doi.org/10.1109/ICM.2018.8704037"/>
     <hyperlink ref="D6" r:id="rId4" display="https://sci-hub.se/10.1109/ICM.2018.8704037" tooltip="https://sci-hub.se/10.1109/ICM.2018.8704037"/>
+    <hyperlink ref="B7" r:id="rId5" display="2022 IEEE High Performance Extreme Computing Conference (HPEC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9926284/proceeding"/>
+    <hyperlink ref="B8" r:id="rId6" display="2022 International SpaceWire &amp; SpaceFibre Conference (ISC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9943570/proceeding"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://ieeexplore.ieee.org/abstract/document/10815861"/>
+    <hyperlink ref="B10" r:id="rId8" display="2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/7792522/proceeding"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Research Fundamentals-UVM papers.xlsx
+++ b/Research Fundamentals-UVM papers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Paper Name</t>
   </si>
@@ -51,6 +51,24 @@
     <t>https://d1wqtxts1xzle7.cloudfront.net/47124056/IJECET_07_03_004-libre.pdf?1468052211=&amp;response-content-disposition=inline%3B+filename%3DUVM_ARCHITECTURE_FOR_VERIFICATION.pdf&amp;Expires=1740482176&amp;Signature=Gh2FffbzFJ73gC7easXne8tqCG~cJfeS77yzmUTKHB8G2H-Hpk5-2VGxM7TxvAReO8wVMcgTjQfOcHzWixy-9mX4bKtsw2XGxpk5U3Z7uVa~PcJklgYlQVeTKO40tc3qFYqLpFmqVFWFdsOLRTAjnMW9Co9AtwH3rXpmdaYKk~dvQL1jURnO3LxKfniCx~wfayEq~nntUO7GjJ-40NS6W2kD9HHilto6X7UP7nR8wnh9OJkZw700F5Qd91pVoBKGm4CMA1DABAJ7LOsTDWzSIwIMfyTCTsxh4pGgvMfuZyw~xw7MR9tS4YbVdO66xq6TV1L~dAXyiAdxexFnRcyj4g__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
   </si>
   <si>
+    <t>Development of generic verification environment based on UVM with case study on HMC controller</t>
+  </si>
+  <si>
+    <t>2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/10.1109/RTEICT.2016.7807882</t>
+  </si>
+  <si>
+    <t>A narrative of UVM testbench environment for interconnection routers: A practical approach</t>
+  </si>
+  <si>
+    <t>2016 11th International Design &amp; Test Symposium (IDT)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7843022</t>
+  </si>
+  <si>
     <t>UVM Based Testbench Architecture for Logic
 Sub-System Verification</t>
   </si>
@@ -58,9 +76,6 @@
     <t>IEEE International Conference on Technological Advancements in Power and Energy(TAP Energy )</t>
   </si>
   <si>
-    <t>2017-2018</t>
-  </si>
-  <si>
     <t>https://sci-hub.se/10.1109/TAPENERGY.2017.8397323</t>
   </si>
   <si>
@@ -74,6 +89,42 @@
     <t>https://sci-hub.se/10.1109/CSCWD.2017.8066759</t>
   </si>
   <si>
+    <t>UVM-based verification of ECC module for flash memories</t>
+  </si>
+  <si>
+    <t> 2017 European Conference on Circuit Theory and Design (ECCTD)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8093248</t>
+  </si>
+  <si>
+    <t>A reusable verification environment for NoC platforms using UVM</t>
+  </si>
+  <si>
+    <t>IEEE EUROCON 2017 -17th International Conference on Smart Technologies</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8011112</t>
+  </si>
+  <si>
+    <t>Automated Coverage Register Access Technology on UVM Framework for Advanced Verification</t>
+  </si>
+  <si>
+    <t>2018 IEEE International Symposium on Circuits and Systems (ISCAS)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8351413</t>
+  </si>
+  <si>
+    <t>An Automated Lightweight UVM Tool</t>
+  </si>
+  <si>
+    <t>2018 30th International Conference on Microelectronics (ICM)</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/10.1109/ICM.2018.8704037</t>
+  </si>
+  <si>
     <t>UVM Based Testbench Architecture for Coverage Driven Functional Verification of SPI Protocol</t>
   </si>
   <si>
@@ -83,13 +134,40 @@
     <t>https://sci-hub.se/10.1109/ICACCI.2018.8554919</t>
   </si>
   <si>
-    <t>An Automated Lightweight UVM Tool</t>
-  </si>
-  <si>
-    <t>2018 30th International Conference on Microelectronics (ICM)</t>
-  </si>
-  <si>
-    <t>https://sci-hub.se/10.1109/ICM.2018.8704037</t>
+    <t>Development of a Generic and a Reconfigurable UVM-Based Verification Environment for SoC Buses</t>
+  </si>
+  <si>
+    <t>2019 31st International Conference on Microelectronics (ICM)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9021657</t>
+  </si>
+  <si>
+    <t>UVM methodology based functional Verification of SPI Protocol</t>
+  </si>
+  <si>
+    <t>Journal of Physics: Conference Series</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1742-6596/1716/1/012035/meta</t>
+  </si>
+  <si>
+    <t>Demystifying GPU UVM Cost with Deep Runtime and Workload Analysis</t>
+  </si>
+  <si>
+    <t>2021 IEEE International Parallel and Distributed Processing Symposium (IPDPS)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9460482</t>
+  </si>
+  <si>
+    <t>UVM Verification IP for AXI</t>
+  </si>
+  <si>
+    <t>2021 IEEE East-West Design &amp; Test Symposium (EWDTS)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9580997</t>
   </si>
   <si>
     <t>Towards a Generic UVM</t>
@@ -112,6 +190,15 @@
     <t>https://ieeexplore.ieee.org/abstract/document/9944066</t>
   </si>
   <si>
+    <t>UVM-based Reusable Hardware Accelerator Verification Platform</t>
+  </si>
+  <si>
+    <t>2023 8th International Conference on Integrated Circuits and Microsystems (ICICM)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/10365758</t>
+  </si>
+  <si>
     <t>[ART]: A Novel Approach to Automated UVM Testbench Generation</t>
   </si>
   <si>
@@ -121,16 +208,13 @@
     <t>https://ieeexplore.ieee.org/abstract/document/10815861</t>
   </si>
   <si>
-    <t>Development of generic verification environment based on UVM with case study on HMC controller</t>
-  </si>
-  <si>
-    <t>2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)</t>
-  </si>
-  <si>
-    <t>2016-2017</t>
-  </si>
-  <si>
-    <t>https://sci-hub.se/10.1109/RTEICT.2016.7807882</t>
+    <t>Analyzing AES Verification: A Comparative Study of UVM and Cocotb Approaches</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Smart Systems for Electrical, Electronics, Communication and Computer Engineering (ICSSEECC)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/10649439</t>
   </si>
 </sst>
 </file>
@@ -143,13 +227,26 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -159,8 +256,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -172,11 +276,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -185,12 +288,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -335,12 +432,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,58 +776,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,87 +833,105 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -819,53 +940,83 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1400,10 +1551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1414,222 +1565,373 @@
     <col min="4" max="4" width="33.1454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.5" spans="1:63">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="28.5" spans="1:63">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="41" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="2" customFormat="1" ht="41" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>2016</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="41" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="41" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="5" s="3" customFormat="1" ht="41" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21">
         <v>2017</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+      <c r="D5" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="6" s="2" customFormat="1" ht="41" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="25">
         <v>2018</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.5" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="10" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9">
         <v>2018</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
+      <c r="D10" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="23" spans="1:4">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="11" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="26">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.5" spans="1:8">
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="23" spans="1:4">
+      <c r="A16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9">
         <v>2022</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>22</v>
+      <c r="D16" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" ht="61.5" spans="1:8">
-      <c r="A8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="17" s="5" customFormat="1" ht="61.5" spans="1:8">
+      <c r="A17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="21">
         <v>2022</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.5" spans="1:4">
-      <c r="A9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8">
+    <row r="18" s="3" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="9">
         <v>2024</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>28</v>
+      <c r="D19" s="28" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.5" spans="1:4">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" ht="20.5" spans="2:2">
-      <c r="B14" s="22"/>
+    <row r="20" s="6" customFormat="1" ht="20.5" spans="1:4">
+      <c r="A20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2024</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="IEEE 21st International Conference on Computer Supported Cooperative Work in Design (CSCWD)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8053876/proceeding"/>
-    <hyperlink ref="B5" r:id="rId2" display="International Conference on Advances in Computing, Communications and Informatics (ICACCI)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8536361/proceeding"/>
-    <hyperlink ref="B6" r:id="rId3" display="2018 30th International Conference on Microelectronics (ICM)" tooltip="https://doi.org/10.1109/ICM.2018.8704037"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://sci-hub.se/10.1109/ICM.2018.8704037" tooltip="https://sci-hub.se/10.1109/ICM.2018.8704037"/>
-    <hyperlink ref="B7" r:id="rId5" display="2022 IEEE High Performance Extreme Computing Conference (HPEC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9926284/proceeding"/>
-    <hyperlink ref="B8" r:id="rId6" display="2022 International SpaceWire &amp; SpaceFibre Conference (ISC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9943570/proceeding"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://ieeexplore.ieee.org/abstract/document/10815861"/>
-    <hyperlink ref="B10" r:id="rId8" display="2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/7792522/proceeding"/>
+    <hyperlink ref="B6" r:id="rId1" display="IEEE 21st International Conference on Computer Supported Cooperative Work in Design (CSCWD)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8053876/proceeding"/>
+    <hyperlink ref="B11" r:id="rId2" display="International Conference on Advances in Computing, Communications and Informatics (ICACCI)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8536361/proceeding"/>
+    <hyperlink ref="B10" r:id="rId3" display="2018 30th International Conference on Microelectronics (ICM)" tooltip="https://doi.org/10.1109/ICM.2018.8704037"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://sci-hub.se/10.1109/ICM.2018.8704037" tooltip="https://sci-hub.se/10.1109/ICM.2018.8704037"/>
+    <hyperlink ref="B16" r:id="rId5" display="2022 IEEE High Performance Extreme Computing Conference (HPEC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9926284/proceeding"/>
+    <hyperlink ref="B17" r:id="rId6" display="2022 International SpaceWire &amp; SpaceFibre Conference (ISC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9943570/proceeding"/>
+    <hyperlink ref="D19" r:id="rId7" display="https://ieeexplore.ieee.org/abstract/document/10815861"/>
+    <hyperlink ref="B3" r:id="rId8" display="2016 IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/7792522/proceeding"/>
+    <hyperlink ref="D15" r:id="rId9" display="https://ieeexplore.ieee.org/abstract/document/9580997"/>
+    <hyperlink ref="B7" r:id="rId10" display=" 2017 European Conference on Circuit Theory and Design (ECCTD)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8080320/proceeding"/>
+    <hyperlink ref="B4" r:id="rId11" display="2016 11th International Design &amp; Test Symposium (IDT)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/7833312/proceeding"/>
+    <hyperlink ref="B14" r:id="rId12" display="2021 IEEE International Parallel and Distributed Processing Symposium (IPDPS)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9458946/proceeding"/>
+    <hyperlink ref="B12" r:id="rId13" display="2019 31st International Conference on Microelectronics (ICM)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/9000745/proceeding"/>
+    <hyperlink ref="B9" r:id="rId14" display="2018 IEEE International Symposium on Circuits and Systems (ISCAS)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8334884/proceeding"/>
+    <hyperlink ref="B20" r:id="rId15" display="2024 International Conference on Smart Systems for Electrical, Electronics, Communication and Computer Engineering (ICSSEECC)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/10649401/proceeding"/>
+    <hyperlink ref="B18" r:id="rId16" display="2023 8th International Conference on Integrated Circuits and Microsystems (ICICM)" tooltip="https://ieeexplore.ieee.org/xpl/conhome/10365709/proceeding"/>
+    <hyperlink ref="D2" r:id="rId17" display="https://d1wqtxts1xzle7.cloudfront.net/47124056/IJECET_07_03_004-libre.pdf?1468052211=&amp;response-content-disposition=inline%3B+filename%3DUVM_ARCHITECTURE_FOR_VERIFICATION.pdf&amp;Expires=1740482176&amp;Signature=Gh2FffbzFJ73gC7easXne8tqCG~cJfeS77yzmUTKHB8G2H-Hpk5-2VGxM7TxvAReO8wVMcgTjQfOcHzWixy-9mX4bKtsw2XGxpk5U3Z7uVa~PcJklgYlQVeTKO40tc3qFYqLpFmqVFWFdsOLRTAjnMW9Co9AtwH3rXpmdaYKk~dvQL1jURnO3LxKfniCx~wfayEq~nntUO7GjJ-40NS6W2kD9HHilto6X7UP7nR8wnh9OJkZw700F5Qd91pVoBKGm4CMA1DABAJ7LOsTDWzSIwIMfyTCTsxh4pGgvMfuZyw~xw7MR9tS4YbVdO66xq6TV1L~dAXyiAdxexFnRcyj4g__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA"/>
+    <hyperlink ref="B8" r:id="rId18" display="IEEE EUROCON 2017 -17th International Conference on Smart Technologies" tooltip="https://ieeexplore.ieee.org/xpl/conhome/8004574/proceeding"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
